--- a/config/forms/app/treatment.xlsx
+++ b/config/forms/app/treatment.xlsx
@@ -84,13 +84,13 @@
     <t>suicide</t>
   </si>
   <si>
-    <t>Have you ever had thoughts of huting yourself or commiting suicide?</t>
+    <t>Have you ever had thoughts of hurting yourself or commiting suicide?</t>
   </si>
   <si>
     <t>suicide_2</t>
   </si>
   <si>
-    <t>Have you ever had thoughts of huting yourself or some else?</t>
+    <t>Have you ever had thoughts of hurting yourself or some else?</t>
   </si>
   <si>
     <t>end group</t>

--- a/config/forms/app/treatment.xlsx
+++ b/config/forms/app/treatment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>type</t>
   </si>
@@ -57,9 +57,6 @@
     <t>I was bothered by things that usually don't bother me</t>
   </si>
   <si>
-    <t>horizontal</t>
-  </si>
-  <si>
     <t>select_one yes_no</t>
   </si>
   <si>
@@ -136,18 +133,6 @@
   </si>
   <si>
     <t>Everyday</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>Mental Health AssesSment</t>
-  </si>
-  <si>
-    <t>Cognitive Assesment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atitudinal Assessment </t>
   </si>
   <si>
     <t>form_title</t>
@@ -181,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -206,8 +191,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +208,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -241,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -271,6 +267,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -570,69 +569,61 @@
       <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="D5" s="9"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="D8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="D9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -650,13 +641,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="42.86"/>
+    <col customWidth="1" min="2" max="2" width="26.43"/>
     <col customWidth="1" min="3" max="3" width="32.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -667,24 +658,24 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -692,10 +683,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -703,10 +694,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -714,10 +705,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -725,44 +716,17 @@
         <v>12</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="A9" s="8"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="A10" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -783,23 +747,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -809,17 +773,17 @@
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="13">
         <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
